--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA907BF-FC6C-4DCE-8DEB-74D7DDC2A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD54E26-2620-4E97-830F-F33494CEB391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,7 +119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,11 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P62" sqref="P62"/>
+      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1968,32 @@
       <c r="O62">
         <v>51</v>
       </c>
-      <c r="P62" s="4"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45429</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>38</v>
+      </c>
+      <c r="F63">
+        <v>61</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>41</v>
+      </c>
+      <c r="O63">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD54E26-2620-4E97-830F-F33494CEB391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE33A6E-D6E6-4EFE-BC87-CC69A229BDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24480" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -433,14 +433,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
+      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -1995,6 +1995,32 @@
         <v>55</v>
       </c>
     </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45457</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>55</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>45</v>
+      </c>
+      <c r="O64">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE33A6E-D6E6-4EFE-BC87-CC69A229BDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948087C-2732-4451-9EEB-091013DBF936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24480" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-22212" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,11 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,6 +2021,29 @@
         <v>35</v>
       </c>
     </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45485</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>48</v>
+      </c>
+      <c r="L65">
+        <v>8</v>
+      </c>
+      <c r="M65">
+        <v>43</v>
+      </c>
+      <c r="N65">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948087C-2732-4451-9EEB-091013DBF936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479FF6E-8BE1-46DE-A6B9-F813D02FF651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22212" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -433,14 +433,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
+      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -2021,7 +2021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45485</v>
       </c>
@@ -2042,6 +2042,52 @@
       </c>
       <c r="N65">
         <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45520</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>47</v>
+      </c>
+      <c r="F66">
+        <v>48</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>42</v>
+      </c>
+      <c r="O66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45548</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>48</v>
+      </c>
+      <c r="F67">
+        <v>47</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>44</v>
+      </c>
+      <c r="O67">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479FF6E-8BE1-46DE-A6B9-F813D02FF651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCCE78C-55D3-4DF2-8D51-4B5A690B3F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,11 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45485</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45520</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45548</v>
       </c>
@@ -2088,6 +2088,32 @@
       </c>
       <c r="O67">
         <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45583</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>51</v>
+      </c>
+      <c r="F68">
+        <v>48</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>37</v>
+      </c>
+      <c r="O68">
+        <v>59</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCCE78C-55D3-4DF2-8D51-4B5A690B3F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38283A81-860B-4423-8EE6-1FDD8DF3A939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
@@ -81,8 +81,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,6 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,6 +2125,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45614</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="F69">
+        <v>49</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>25</v>
+      </c>
+      <c r="O69">
+        <v>69</v>
+      </c>
+      <c r="P69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45639</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>52</v>
+      </c>
+      <c r="F70">
+        <v>45</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>35</v>
+      </c>
+      <c r="O70">
+        <v>55</v>
+      </c>
+      <c r="P70" s="4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38283A81-860B-4423-8EE6-1FDD8DF3A939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40857A-CA45-41C5-B907-54AF511E8F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-22212" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -442,42 +442,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P70" sqref="P70"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2030,7 +2030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45485</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45520</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45548</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45583</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45614</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45639</v>
       </c>
@@ -2173,8 +2173,34 @@
       <c r="O70">
         <v>55</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="3">
         <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45674</v>
+      </c>
+      <c r="E71">
+        <v>52</v>
+      </c>
+      <c r="F71">
+        <v>48</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>18</v>
+      </c>
+      <c r="O71">
+        <v>61</v>
+      </c>
+      <c r="P71">
+        <v>18</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40857A-CA45-41C5-B907-54AF511E8F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1CB5B6-3945-42EC-B575-B3FD27F88D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22212" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,6 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -442,14 +443,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -2203,6 +2204,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45702</v>
+      </c>
+      <c r="E72">
+        <v>49</v>
+      </c>
+      <c r="F72">
+        <v>51</v>
+      </c>
+      <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>53</v>
+      </c>
+      <c r="P72" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1CB5B6-3945-42EC-B575-B3FD27F88D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B399E215-AF48-438D-ACEC-AA55CD569801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24510" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,7 +128,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -443,14 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P72" sqref="P72"/>
+      <selection pane="bottomLeft" activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -2220,11 +2219,25 @@
       <c r="O72">
         <v>53</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P72">
         <v>35</v>
       </c>
       <c r="Q72">
         <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45716</v>
+      </c>
+      <c r="O73">
+        <v>48</v>
+      </c>
+      <c r="P73">
+        <v>51</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B399E215-AF48-438D-ACEC-AA55CD569801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60350C99-F6FF-45A6-87C3-EF8746290FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24510" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -442,14 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R73" sqref="R73"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -2240,6 +2240,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45730</v>
+      </c>
+      <c r="E74">
+        <v>32</v>
+      </c>
+      <c r="F74">
+        <v>60</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="O74">
+        <v>39</v>
+      </c>
+      <c r="P74">
+        <v>60</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDemonic\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60350C99-F6FF-45A6-87C3-EF8746290FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C3FE2-E907-4D98-8296-75CC014B3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24510" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -442,14 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -2263,6 +2263,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45744</v>
+      </c>
+      <c r="E75">
+        <v>32</v>
+      </c>
+      <c r="F75">
+        <v>64</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>48</v>
+      </c>
+      <c r="P75">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C3FE2-E907-4D98-8296-75CC014B3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12E216-40E1-489A-857B-32664801DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24510" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24480" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q75" sqref="Q75"/>
+      <selection pane="bottomLeft" activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,6 +2283,26 @@
         <v>52</v>
       </c>
     </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45763</v>
+      </c>
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>79</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>40</v>
+      </c>
+      <c r="P76">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llaumedr.IFR\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indem\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12E216-40E1-489A-857B-32664801DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776843C-73F6-4083-A257-BA266548EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24480" windowHeight="15990" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -442,14 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomLeft" activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -2170,7 +2170,7 @@
       <c r="N70">
         <v>35</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="3">
         <v>55</v>
       </c>
       <c r="P70" s="3">
@@ -2301,6 +2301,29 @@
       </c>
       <c r="P76">
         <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45793</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>84</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="N77">
+        <v>7</v>
+      </c>
+      <c r="O77">
+        <v>78</v>
+      </c>
+      <c r="P77">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2309,5 +2332,6 @@
     <mergeCell ref="K1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indem\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776843C-73F6-4083-A257-BA266548EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437B08A-9C79-4C70-A8C2-2A3F0C197BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -442,14 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O70" sqref="O70"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -2326,6 +2326,52 @@
         <v>15</v>
       </c>
     </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45821</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>89</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>9</v>
+      </c>
+      <c r="O78">
+        <v>80</v>
+      </c>
+      <c r="P78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45853</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>83</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>9</v>
+      </c>
+      <c r="O79">
+        <v>81</v>
+      </c>
+      <c r="P79">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indem\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437B08A-9C79-4C70-A8C2-2A3F0C197BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592CB5F-8006-4418-A8F1-5D938607DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,6 +2372,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45884</v>
+      </c>
+      <c r="E80">
+        <v>22</v>
+      </c>
+      <c r="F80">
+        <v>78</v>
+      </c>
+      <c r="N80">
+        <v>8</v>
+      </c>
+      <c r="O80">
+        <v>82</v>
+      </c>
+      <c r="P80">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indem\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592CB5F-8006-4418-A8F1-5D938607DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A4933-9AC6-434C-88C5-281B2A3DCF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
@@ -442,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
+      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,6 +2392,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45916</v>
+      </c>
+      <c r="E81">
+        <v>48</v>
+      </c>
+      <c r="F81">
+        <v>52</v>
+      </c>
+      <c r="N81">
+        <v>15</v>
+      </c>
+      <c r="O81">
+        <v>84</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indem\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A4933-9AC6-434C-88C5-281B2A3DCF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BE8C71-166C-43D6-A526-3874A14E13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
@@ -442,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
+      <selection pane="bottomLeft" activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,6 +2412,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E82">
+        <v>54</v>
+      </c>
+      <c r="F82">
+        <v>46</v>
+      </c>
+      <c r="N82">
+        <v>25</v>
+      </c>
+      <c r="O82">
+        <v>74</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indem\Documents\LuisLauM.github.io\blog\elnino-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demersales1\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BE8C71-166C-43D6-A526-3874A14E13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E950E0-4B56-459A-9C05-ED3EAA63691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -442,19 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P82" sqref="P82"/>
+      <selection pane="bottomLeft" activeCell="P83" sqref="N83:P83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -479,7 +479,7 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43994</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44025</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44056</v>
       </c>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44092</v>
       </c>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44123</v>
       </c>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44141</v>
       </c>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44176</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44210</v>
       </c>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44239</v>
       </c>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44267</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44301</v>
       </c>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44330</v>
       </c>
@@ -927,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44358</v>
       </c>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44389</v>
       </c>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44421</v>
       </c>
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44452</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44483</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44512</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44545</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44575</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44606</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44634</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44664</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44694</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44728</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44757</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44785</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44819</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44847</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44879</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44910</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44939</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44973</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45001</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45015</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45029</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45044</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45057</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45077</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45093</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45112</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45128</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45149</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45169</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45183</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45197</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45212</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45228</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45240</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45254</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45275</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45289</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45303</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45317</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45338</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45352</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45366</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45387</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45401</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45429</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45457</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45485</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45520</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45548</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45583</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45614</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45639</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45674</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45702</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45716</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45730</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45744</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45763</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45793</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45821</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45853</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45884</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45916</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45947</v>
       </c>
@@ -2429,6 +2429,52 @@
         <v>74</v>
       </c>
       <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>45979</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>75</v>
+      </c>
+      <c r="F83">
+        <v>22</v>
+      </c>
+      <c r="N83">
+        <v>14</v>
+      </c>
+      <c r="O83">
+        <v>85</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>46009</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>75</v>
+      </c>
+      <c r="F84">
+        <v>24</v>
+      </c>
+      <c r="N84">
+        <v>21</v>
+      </c>
+      <c r="O84">
+        <v>78</v>
+      </c>
+      <c r="P84">
         <v>1</v>
       </c>
     </row>

--- a/blog/elnino-app/prob_vals.xlsx
+++ b/blog/elnino-app/prob_vals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demersales1\Documents\LuisLauM.github.io\blog\elnino-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E950E0-4B56-459A-9C05-ED3EAA63691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534CB54A-0EB2-47C5-B8F1-328005B5C4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E84E93AA-1F6F-422A-B619-73DFFD9A6158}"/>
   </bookViews>
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,11 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C29F5-28DB-4A95-A3F0-2FC922850167}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P83" sqref="N83:P83"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45916</v>
       </c>
@@ -2412,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45947</v>
       </c>
@@ -2432,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45979</v>
       </c>
@@ -2455,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>46009</v>
       </c>
@@ -2476,6 +2485,54 @@
       </c>
       <c r="P84">
         <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>46037</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85">
+        <v>49</v>
+      </c>
+      <c r="F85">
+        <v>51</v>
+      </c>
+      <c r="N85">
+        <v>13</v>
+      </c>
+      <c r="O85">
+        <v>77</v>
+      </c>
+      <c r="P85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>46052</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>75</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>56</v>
+      </c>
+      <c r="P86">
+        <v>35</v>
+      </c>
+      <c r="Q86">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
